--- a/proyectos_talleres_reportes_cubicaciones.xlsx
+++ b/proyectos_talleres_reportes_cubicaciones.xlsx
@@ -1000,7 +1000,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="U5" t="n">
         <v>4</v>
@@ -1008,12 +1008,12 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>lolololo</t>
+          <t>e</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr"/>
@@ -1022,11 +1022,11 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Activa</t>
+          <t>No Iniciada</t>
         </is>
       </c>
       <c r="AD5" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>

--- a/proyectos_talleres_reportes_cubicaciones.xlsx
+++ b/proyectos_talleres_reportes_cubicaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG109"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,110 +491,75 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Ejecución</t>
+          <t>Monto Item</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Porciento Ejecución Taller</t>
+          <t>Longitud</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Comentarios</t>
+          <t>Latitud</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Monto Item</t>
+          <t>Coordinador</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Longitud</t>
+          <t>Supervisor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Latitud</t>
+          <t>ID Reporte</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Coordinador</t>
+          <t>ID Taller Reporte</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Supervisor</t>
+          <t>ID Proyecto Reporte</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>ID Reporte</t>
+          <t>Fecha Reporte</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>ID Taller Reporte</t>
+          <t>Descripción</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ID Proyecto Reporte</t>
+          <t>Estatus Reporte</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Fecha Reporte</t>
+          <t>Porciento Ejecución Reporte</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Descripción</t>
+          <t>Total Monto Bruto</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Imagen 1</t>
+          <t>Total Aceras</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Imagen 2</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Imagen 3</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Imagen 4</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Estatus Reporte</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Porciento Ejecución Reporte</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Total Monto Bruto</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Total Aceras</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Total Contenes</t>
         </is>
@@ -652,74 +617,57 @@
           <t>BUENOS AIRES, GUATAPANAL Y LOS ÁNGELES</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L2" t="n">
+        <v>50000000</v>
       </c>
       <c r="M2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA, DEBIDO A QUE AGOTO EL PAGO DE LA SEGUNDA CUBICACION. SE ESTA ELABORANDO PARA CUBICACION #3, LA CUAL ESTARA A LA ESPERA DEL EQUILIBRIO ECONOMICO Y REFORMULADO.</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>VICTOR JAQUEZ</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>VICTOR JAQUEZ</t>
+        </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>VICTOR JAQUEZ</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>VICTOR JAQUEZ</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
         <v>10</v>
       </c>
-      <c r="U2" t="n">
+      <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
         <is>
           <t>2024-12-28</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>El taller se encuentra en etapa final, realizando levantamiento para la cubicacion final.</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>TERMINADO</t>
         </is>
       </c>
-      <c r="AD2" t="n">
+      <c r="W2" t="n">
         <v>100</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="X2" t="n">
         <v>135433254</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="Y2" t="n">
         <v>2242</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="Z2" t="n">
         <v>1353</v>
       </c>
     </row>
@@ -775,62 +723,45 @@
           <t>SAN CARLOS,EL MILLON, AV. INDEPENDENCIA, BARRIO SAN MIGUEL, URB. ALFIMAR, URB EL CACIQUE, MIRADOR SUR, ENS. ESPAILLAT ,MEJORAMIENTO SOCIAL</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L3" t="n">
+        <v>50000000</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA EN ESPERA DE PAGO CUBICACION</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Activa</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>44</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Activa</t>
-        </is>
-      </c>
-      <c r="AD3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,28 +815,18 @@
           <t>HATO NUEVO ARRIBA, MAGUEYAL, OREGANO GRANDE, VIETNAM, LA TUNITA, EL REGUIO, LAS YAYAS ABAJO, BARRIO BLANCO</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L4" t="n">
+        <v>50000000</v>
       </c>
       <c r="M4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>REALIZANDO TALLERES Y CONSTRUCCION DE BORDILLOS.</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -915,13 +836,6 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -975,62 +889,45 @@
           <t>SABANA CRUZ</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L5" t="n">
+        <v>20000000</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>CUBICACION NO. 2 SOMETIDA ESPERANDO PAGO</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>12</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>No Iniciada</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>23</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>No Iniciada</t>
-        </is>
-      </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1084,62 +981,45 @@
           <t>EL LLANO</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L6" t="n">
+        <v>20000000</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>CUBICACION NO. 2 SOMETIDA ESPERANDO PAGO</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>2024-06-18</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>kikikik</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Activa</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>60</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Activa</t>
-        </is>
-      </c>
-      <c r="AD6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1193,28 +1073,18 @@
           <t>CACHON DE LA RUBIA   (cambiado a otro sector, en espera de confimacion del nuevo sector)</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L7" t="n">
+        <v>20000000</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>OBRA INICIA TRABAJOS NUEVAMENTE</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1224,13 +1094,6 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1284,28 +1147,18 @@
           <t>SAN LUIS</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L8" t="n">
+        <v>20000000</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>OBRA INICIA TRABAJOS NUEVAMENTE</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1315,13 +1168,6 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1375,28 +1221,18 @@
           <t>MONTE BRISAS</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L9" t="n">
+        <v>20000000</v>
       </c>
       <c r="M9" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>REACTIVADA .CUBICACION NO. 2 PAGADA.EN ESPERA DE EQUILIBRIO ECONOMICO</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1406,13 +1242,6 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1466,28 +1295,18 @@
           <t>ZONA URBANA</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L10" t="n">
+        <v>20000000</v>
       </c>
       <c r="M10" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>DETENIDO HASTA ESPERAR EL PAGO DEL A SEGUNDA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1497,13 +1316,6 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1557,28 +1369,18 @@
           <t>MARBELLA</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L11" t="n">
+        <v>50000000</v>
       </c>
       <c r="M11" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1588,13 +1390,6 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1648,28 +1443,18 @@
           <t>EL TAMARINDO</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L12" t="n">
+        <v>50000000</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>REACTIVADA POR TRAMITE DE CUBICACION. EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION no. 2</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1679,13 +1464,6 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1739,28 +1517,18 @@
           <t>EL HIGUERITO - JOSÉ CABRERA, MIRADOR SUR, EL CEMENTERIO Y MEJORAMIENTO SOCIAL</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L13" t="n">
+        <v>50000000</v>
       </c>
       <c r="M13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA. CONTRATISTA AGOTO EL PAGO DE LA SEGUNDA CUBICACION. SE ESTA A LA ESPERA DEL EQUILIBRIO ECONOMICO PARA ENTREGAR LA 3DA CUBICACION.</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1770,13 +1538,6 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1830,28 +1591,18 @@
           <t>BOHÍO VIEJO</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L14" t="n">
+        <v>20000000</v>
       </c>
       <c r="M14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA. CONTRATISTA AGOTO EL PAGO DE LA SEGUNDA CUBICACION. SE ESTA A LA ESPERA DEL EQUILIBRIO ECONOMICO PARA ENTREGAR LA 3DA CUBICACION.</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1861,13 +1612,6 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1921,28 +1665,18 @@
           <t>EL SEMINARIO</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L15" t="n">
+        <v>20000000</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA. CONTRATISTA AGOTO EL PAGO DE LA SEGUNDA CUBICACION. SE ESTA A LA ESPERA DEL EQUILIBRIO ECONOMICO PARA ENTREGAR LA 3DA CUBICACION.</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1952,13 +1686,6 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2012,28 +1739,18 @@
           <t>VILLA VILORIO</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L16" t="n">
+        <v>50000000</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2043,13 +1760,6 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2103,28 +1813,18 @@
           <t>LAS CAÑITAS</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L17" t="n">
+        <v>20000000</v>
       </c>
       <c r="M17" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NOTIFICADO, POR MOTIVOS DE RITMO LENTO DE TRABAJO</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2134,13 +1834,6 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2194,28 +1887,18 @@
           <t>BUENOS AIRES Y LOS CALLEJONES</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L18" t="n">
+        <v>20000000</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -2225,13 +1908,6 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2285,28 +1961,18 @@
           <t>SAN GREGORIO LUPERON, ENSANCHE MIRAMAR Y BATEY 3</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L19" t="n">
+        <v>50000000</v>
       </c>
       <c r="M19" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA. CONTRATISTA AGOTO EL PAGO DE LA PRIMERA CUBICACION. SE ESTA A LA ESPERA DEL EQUILIBRIO ECONOMICO PARA ENTREGAR LA 2DA CUBICACION.</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -2316,13 +1982,6 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2376,28 +2035,18 @@
           <t>NIGUA</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L20" t="n">
+        <v>50000000</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>EN ESPERA DE PAGO DE CUBICACION</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -2407,13 +2056,6 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2467,28 +2109,18 @@
           <t>BORUGA, MANOMATUE Y HATO DAMAS</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L21" t="n">
+        <v>20000000</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>DEFINICION POR PARTE DE DIRECCION TECNICA/JURIDICA MOPC. CONTRATO NO CERTIFICADO.NO POSEE AVANCE INICIAL.</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -2498,13 +2130,6 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2558,28 +2183,18 @@
           <t xml:space="preserve">SALINAS </t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L22" t="n">
+        <v>20000000</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>DEFINICION POR PARTE DE DIRECCION TECNICA/JURIDICA MOPC. CONTRATO NO CERTIFICADO.NO POSEE AVANCE INICIAL.</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -2589,13 +2204,6 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2649,28 +2257,18 @@
           <t>NUEVA JERUSALEM A</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L23" t="n">
+        <v>50000000</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>A LA ESPERA DE PAGO DE CUBICACION</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2680,13 +2278,6 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2740,28 +2331,18 @@
           <t>NUEVA JERUSALEM B</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L24" t="n">
+        <v>50000000</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>A LA ESPERA DE PAGO DE CUBICACION</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2771,13 +2352,6 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2831,28 +2405,18 @@
           <t>PALENQUE, LA MADRE, GUAYACANES Y EL MESERON</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L25" t="n">
+        <v>20000000</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>REACTIVADA .CUBICACION NO. 2 PAGADA.EN ESPERA DE EQUILIBRIO ECONOMICO</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2862,13 +2426,6 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2922,28 +2479,18 @@
           <t>LA GRUA   (cambiado a otro sector, en espera de confimacion del nuevo sector)</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L26" t="n">
+        <v>50000000</v>
       </c>
       <c r="M26" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>CUBICACION SOMETIDA A VSFO. EN PROCESO DE REVISION.</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2953,13 +2500,6 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3013,28 +2553,18 @@
           <t>RESIDENCIAL MARJORIE, CERROS DE VALENCIA, LOS MAÑONES Y URBANIZACIÓN EDUARDO BRITO II</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L27" t="n">
+        <v>50000000</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>CUBICACION SOMETIDA A VSFO. EN PROCESO DE REVISION.</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -3044,13 +2574,6 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3104,28 +2627,18 @@
           <t>LAS MARAS, HATICO DE JEREMIAS Y BACUI</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L28" t="n">
+        <v>50000000</v>
       </c>
       <c r="M28" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>INICIO LOS TRABAJOS EN EL SECTOR EL PONTON DE LA VEGA</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -3135,13 +2648,6 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3195,28 +2701,18 @@
           <t>VENGA A VER Y NUEVO AMANECER</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L29" t="n">
+        <v>20000000</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>CUBICACION NO. 2 PAGADA. ESPERANDO PRESUPUESTO EQUILIBRADO.</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -3226,13 +2722,6 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3286,28 +2775,18 @@
           <t>TITO CABRERA Y PARADERO</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L30" t="n">
+        <v>50000000</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>DETENIDA A LA ESPERA DEL PAGO DE LA SEGUNDA CUBICACION - ESTA OBRA LA TIENE OTRO CONTRATISTA POR SESION.</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -3317,13 +2796,6 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,28 +2849,18 @@
           <t>LOS RESTURADORES</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L31" t="n">
+        <v>50000000</v>
       </c>
       <c r="M31" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>DETENIDA A LA ESPERA DEL PAGO DE LA SEGUNDA CUBICACION - ESTA OBRA LA TIENE OTRO CONTRATISTA POR SESION.</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -3408,13 +2870,6 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3468,28 +2923,18 @@
           <t>MAESTRO LI, GEORGE, LOS QUIMICOS, PUERTO RICO</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L32" t="n">
+        <v>50000000</v>
       </c>
       <c r="M32" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -3499,13 +2944,6 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3559,28 +2997,18 @@
           <t>VILLA VERDE, ÁFRICA, LA LOMA, PUEBLO NUEVO, BATEY LOS MONTONES</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L33" t="n">
+        <v>20000000</v>
       </c>
       <c r="M33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -3590,13 +3018,6 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3650,28 +3071,18 @@
           <t>RAMON SANTANA</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L34" t="n">
+        <v>20000000</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -3681,13 +3092,6 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3737,28 +3141,18 @@
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L35" t="n">
+        <v>20000000</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -3768,13 +3162,6 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3828,28 +3215,18 @@
           <t>BARRIO LOS ROBLES, EL CAYUCO Y LA 40</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L36" t="n">
+        <v>20000000</v>
       </c>
       <c r="M36" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>CUBICACION NO. 2 PAGADA Y EN ESPERA DE EQUILIBRIO ECONOMICO. PARA CIERRE DE OBRA.</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -3859,13 +3236,6 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3919,28 +3289,18 @@
           <t>LOS CANDELARIOS-LA SABINA, LOS PLANITOS, PINAL DORADO, LA JOYA, ESTANCITA</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L37" t="n">
+        <v>20000000</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AGOTO PAGO DE CUBICACION </t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -3950,13 +3310,6 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4010,28 +3363,18 @@
           <t>LA PLANTA, COLONIA JAPONESA, LAS AUYAMAS</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L38" t="n">
+        <v>20000000</v>
       </c>
       <c r="M38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AGOTO PAGO DE CUBICACION </t>
-        </is>
-      </c>
-      <c r="O38" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -4041,13 +3384,6 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4101,28 +3437,18 @@
           <t>VILLA GUERRERO</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L39" t="n">
+        <v>50000000</v>
       </c>
       <c r="M39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -4132,13 +3458,6 @@
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4192,28 +3511,18 @@
           <t>DUARTE, EL CEDRO, V CENTENARIO Y LA LISA</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L40" t="n">
+        <v>20000000</v>
       </c>
       <c r="M40" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -4223,13 +3532,6 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4283,28 +3585,18 @@
           <t>GUAYABAL, LAS PALMAS, PARAÍSO</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>TERMINADO</t>
-        </is>
+      <c r="L41" t="n">
+        <v>50000000</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>TERMINANDO LOS TRABAJOS EN EL SECTOR EL GUAYABAL, CONTRATISTA COMPLETARIA AL 100% EL PRESUPUESTO Y 25% DEL ADICIONAL.</t>
-        </is>
-      </c>
-      <c r="O41" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -4314,13 +3606,6 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4374,28 +3659,18 @@
           <t>IMBERT</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L42" t="n">
+        <v>50000000</v>
       </c>
       <c r="M42" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>OBRA REACTIVADA, TRABAJANDO EN EL SECTOR GUANANICO.</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -4405,13 +3680,6 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4465,28 +3733,18 @@
           <t>BELLA VISTA</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L43" t="n">
+        <v>20000000</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -4496,13 +3754,6 @@
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4556,28 +3807,18 @@
           <t>ARROYO CAÑA, JUAN LUIS, LOS QUEMAO Y BANILEJO, LA VIGÍA</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L44" t="n">
+        <v>50000000</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>REALIZANDO TALLERES Y CONSTRUCCION DE BORDILLOS.</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -4587,13 +3828,6 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4647,29 +3881,18 @@
           <t>ARROYO LOS COME DULCA</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L45" t="n">
+        <v>20000000</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>SE NOTIFICO EN REUNION QUE DEVIALSA DARA SEGUIMIENTO A DICHA OBRA (DEBE EMPODERAR AL REPRESENTANTE). 
-20.10.23 - YA POSEE AVANCE INICIAL, Y EL 23.10.23 PROXIMO SE  ESTARA PONIENDO EN POSESION PARA INICIAL LOS TRABAJOS.</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -4679,13 +3902,6 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4739,28 +3955,18 @@
           <t>EL EDÉN</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L46" t="n">
+        <v>20000000</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O46" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -4770,13 +3976,6 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4830,28 +4029,18 @@
           <t>JOSÉ FRANCISCO PEÑA GÓMEZ,  LAS FLORES, BUENOS AIRES, LA CRUZ Y EL HELECHAL</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L47" t="n">
+        <v>50000000</v>
       </c>
       <c r="M47" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>EN REVISION PARA RECONOCIMIENTO DE MOV. DE TIERRA. LE PAGARON PERO EL DINERO NO DA PARA REINICIAR TRSBAJOS</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -4861,13 +4050,6 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4921,28 +4103,18 @@
           <t>LOS SOLARES, EL COCO, BARRIO EL PLAY</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L48" t="n">
+        <v>20000000</v>
       </c>
       <c r="M48" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>REINICIARON LOS TRABAJOS EN UN SECTOR SOLICITADO POR EL SINDICO</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -4952,13 +4124,6 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5012,28 +4177,18 @@
           <t>CIUDAD UNIVERSITARIA Y ESTADIO OLIMPICO</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>TERMINADO</t>
-        </is>
+      <c r="L49" t="n">
+        <v>50000000</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>ITEM TERMINADO</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -5043,13 +4198,6 @@
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5103,28 +4251,18 @@
           <t>VILLA ELOISA</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L50" t="n">
+        <v>20000000</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -5134,13 +4272,6 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5194,28 +4325,18 @@
           <t>LOS GIRASOLES Y LOS RIOS</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L51" t="n">
+        <v>50000000</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>ESTA TRABAJANDO EN EL SECTOR LOS GIRASOLES</t>
-        </is>
-      </c>
-      <c r="O51" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -5225,13 +4346,6 @@
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5285,28 +4399,18 @@
           <t>AV. A. LINCOLN Y W. CHURCHILL</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>TERMINADO</t>
-        </is>
+      <c r="L52" t="n">
+        <v>20000000</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>ITEM TERMINADO</t>
-        </is>
-      </c>
-      <c r="O52" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -5316,13 +4420,6 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5376,28 +4473,18 @@
           <t>BAWINCHO, PARAÍSO, TAMARINDO, LOS ESPAÑOLES</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L53" t="n">
+        <v>50000000</v>
       </c>
       <c r="M53" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>ESPERANDO PAGO DE 2DA CUBICACION Y EQUILIBRIO ECONOMICO</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -5407,13 +4494,6 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5467,28 +4547,18 @@
           <t>EL CANAL</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L54" t="n">
+        <v>20000000</v>
       </c>
       <c r="M54" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>ESPERANDO PAGO DE 2DA CUBICACION Y EQUILIBRIO ECONOMICO</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -5498,13 +4568,6 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5559,28 +4622,18 @@
 </t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L55" t="n">
+        <v>20000000</v>
       </c>
       <c r="M55" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>ESPERANDO PAGO DE 2DA CUBICACION Y EQUILIBRIO ECONOMICO</t>
-        </is>
-      </c>
-      <c r="O55" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -5590,13 +4643,6 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5650,28 +4696,18 @@
           <t>LA UNION, JUAN CASTAÑO, MARIA TRINIDAD SANCHEZ Y PARAISO</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L56" t="n">
+        <v>20000000</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O56" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -5681,13 +4717,6 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5741,28 +4770,18 @@
           <t>RAFAEL, Y CRUCETA</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L57" t="n">
+        <v>20000000</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>DEFINICION POR PARTE DE DIRECCION TECNICA/JURIDICA MOPC. CONTRATO NO CERTIFICADO. NO POSEE AVANCE</t>
-        </is>
-      </c>
-      <c r="O57" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -5772,13 +4791,6 @@
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5832,28 +4844,18 @@
           <t>PALMA REAL, LOS RIOS, LAS PALMAS</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L58" t="n">
+        <v>50000000</v>
       </c>
       <c r="M58" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>A LA ESPERA DE PAGO DE CUBICACION</t>
-        </is>
-      </c>
-      <c r="O58" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -5863,13 +4865,6 @@
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5923,28 +4918,18 @@
           <t>PANCHITA, MARÍA LUISA</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L59" t="n">
+        <v>20000000</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>ESPERANDO PAGO 2DA CUB.</t>
-        </is>
-      </c>
-      <c r="O59" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -5954,13 +4939,6 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6014,28 +4992,18 @@
           <t>LAS CAOBAS, ARROYO EL GATO, PALO ROTO, CENTRO DEL PUEBLO JAMAO</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>TERMINADO</t>
-        </is>
+      <c r="L60" t="n">
+        <v>20000000</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>TERMINADA</t>
-        </is>
-      </c>
-      <c r="O60" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -6045,13 +5013,6 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6106,28 +5067,18 @@
 </t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L61" t="n">
+        <v>20000000</v>
       </c>
       <c r="M61" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>998. NO LLEGA AL 80 DEL AVANCE. EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O61" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -6137,13 +5088,6 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6197,28 +5141,18 @@
           <t>LA PALMITA, GUAYACANAL, BARRIO NUEVO, LA CUCHILLA, GUACHUPITA Y LAS TERRENAS</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L62" t="n">
+        <v>20000000</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>A LA ESPERA DE PAGO DE CUBICACION no. 2</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -6228,13 +5162,6 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6288,28 +5215,18 @@
           <t>BARRIO AGUAS LOCAS</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L63" t="n">
+        <v>50000000</v>
       </c>
       <c r="M63" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>A LA ESPERA DE PAGO DE CUBICACION</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -6319,13 +5236,6 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6375,28 +5285,18 @@
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L64" t="n">
+        <v>20000000</v>
       </c>
       <c r="M64" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>CUBICACIÓN SOMETIDA</t>
-        </is>
-      </c>
-      <c r="O64" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
@@ -6406,13 +5306,6 @@
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6466,28 +5359,18 @@
           <t>EL MOLINO, LAS CAOBAS, SANTA BELLA Y VILLA MARÍA</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L65" t="n">
+        <v>50000000</v>
       </c>
       <c r="M65" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>LOS CONTRATISTAS INVIRTIERON SUS INGRESOS EN EL LOTE 6</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -6497,13 +5380,6 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6557,28 +5433,18 @@
           <t>LAVADOR, BENERITO, EL CENTRO DE INESPRE</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L66" t="n">
+        <v>50000000</v>
       </c>
       <c r="M66" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O66" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -6588,13 +5454,6 @@
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6648,28 +5507,18 @@
           <t>BRAZALETE, SABRINA, LA FÉ Y LA CANDELARIA</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L67" t="n">
+        <v>50000000</v>
       </c>
       <c r="M67" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>PENDIENTE VISITA PARA VALIDACION DE VOLUMENES.</t>
-        </is>
-      </c>
-      <c r="O67" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -6679,13 +5528,6 @@
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6739,28 +5581,18 @@
           <t>LOS PINOS, LOS SUIZOS</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L68" t="n">
+        <v>50000000</v>
       </c>
       <c r="M68" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>ORGANIZACION DE TALLERES PARA RE- ACTIVACION. ESPERA DE EQUILIBRIO ECONOMICO</t>
-        </is>
-      </c>
-      <c r="O68" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -6770,13 +5602,6 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6830,28 +5655,18 @@
           <t>POZO DE PALMA, LOS CAMACHOS</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L69" t="n">
+        <v>20000000</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O69" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
@@ -6861,13 +5676,6 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6921,28 +5729,18 @@
           <t xml:space="preserve"> BOMBA DE YAIBA</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L70" t="n">
+        <v>20000000</v>
       </c>
       <c r="M70" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>REINICIO DE TRABAJOS EN EL MISMO SECTOR</t>
-        </is>
-      </c>
-      <c r="O70" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -6952,13 +5750,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
-      <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
-      <c r="AG70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7012,28 +5803,18 @@
           <t xml:space="preserve">LA Q, CERRO </t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L71" t="n">
+        <v>20000000</v>
       </c>
       <c r="M71" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>INICIO DE TALLERES</t>
-        </is>
-      </c>
-      <c r="O71" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -7043,13 +5824,6 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -7103,28 +5877,18 @@
           <t>LAS FLORES</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L72" t="n">
+        <v>20000000</v>
       </c>
       <c r="M72" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>CUBICACION NO. 2 SOMETIDA ESPERANDO PRESUPUESTO EQUILIBRADO.</t>
-        </is>
-      </c>
-      <c r="O72" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -7134,13 +5898,6 @@
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7194,28 +5951,18 @@
           <t xml:space="preserve">CERRO BLANCO, EL PAPAYO, LA JOYA, LOS FABIANES, LOS LIRIOS </t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L73" t="n">
+        <v>50000000</v>
       </c>
       <c r="M73" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA POR CULPA DEL CONTRATISTA, A PESAR DE RECIBIR EL PAGO DE LA CUBICACION #1 HACE MAS DE DOS MESES NO HA REINICIADO EL PROYECTOR</t>
-        </is>
-      </c>
-      <c r="O73" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -7225,13 +5972,6 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7285,28 +6025,18 @@
           <t>LA CHIVA, LIMONAL ARRIBA</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L74" t="n">
+        <v>20000000</v>
       </c>
       <c r="M74" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA POR CULPA DEL CONTRATISTA, A PESAR DE RECIBIR EL PAGO DE LA CUBICACION #1 HACE MAS DE DOS MESES NO HA REINICIADO EL PROYECTOR</t>
-        </is>
-      </c>
-      <c r="O74" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -7316,13 +6046,6 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7376,28 +6099,18 @@
           <t>LICEY ARRIBA, MONTE ADENTRO</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L75" t="n">
+        <v>20000000</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O75" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -7407,13 +6120,6 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7467,28 +6173,18 @@
           <t>EL CERCADILLO, LA COLORA, LA EXPLANADA, LAS ACACIA, MIONO MOJAO, CENTRO DEL PUEBLO</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L76" t="n">
+        <v>20000000</v>
       </c>
       <c r="M76" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION #1</t>
-        </is>
-      </c>
-      <c r="O76" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -7498,13 +6194,6 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7558,28 +6247,18 @@
           <t>EL COPEY Y NUEVO YAGAL</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L77" t="n">
+        <v>50000000</v>
       </c>
       <c r="M77" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>0. CUBICACION PAGADA. ESPERANDO EQUILIBRIO ECONOMICO PARA REINICIAR</t>
-        </is>
-      </c>
-      <c r="O77" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -7589,13 +6268,6 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7649,28 +6321,18 @@
           <t>SECTOR V CENTENARIO</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L78" t="n">
+        <v>20000000</v>
       </c>
       <c r="M78" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>0. CUBICACION PAGADA. ESPERANDO EQUILIBRIO ECONOMICO PARA REINICIAR</t>
-        </is>
-      </c>
-      <c r="O78" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -7680,13 +6342,6 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7740,28 +6395,18 @@
           <t>JAYACO, LA CEIBA y BARRIO PUERTO RICO</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L79" t="n">
+        <v>20000000</v>
       </c>
       <c r="M79" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>0. CUBICACION PAGADA. ESPERANDO EQUILIBRIO ECONOMICO PARA REINICIAR</t>
-        </is>
-      </c>
-      <c r="O79" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -7771,13 +6416,6 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7831,28 +6469,18 @@
           <t>LOS BLEOS, LOS ARROCES</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L80" t="n">
+        <v>20000000</v>
       </c>
       <c r="M80" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>0. CUBICACION PAGADA. ESPERANDO EQUILIBRIO ECONOMICO PARA REINICIAR</t>
-        </is>
-      </c>
-      <c r="O80" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -7862,13 +6490,6 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="inlineStr"/>
-      <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="inlineStr"/>
-      <c r="AG80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7922,28 +6543,18 @@
           <t>MIRABEL Y LOS JADINES</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L81" t="n">
+        <v>50000000</v>
       </c>
       <c r="M81" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>PARALIZADA POR EL CLIMA</t>
-        </is>
-      </c>
-      <c r="O81" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
@@ -7953,13 +6564,6 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -8013,28 +6617,18 @@
           <t>LA ALTAGRACIA, VILLA REAL, VILLA LINDA, VILLA HORTENCIA</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L82" t="n">
+        <v>50000000</v>
       </c>
       <c r="M82" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>PARALIZADA POR EL CLIMA</t>
-        </is>
-      </c>
-      <c r="O82" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -8044,13 +6638,6 @@
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
-      <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr"/>
-      <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -8104,28 +6691,18 @@
           <t>PRIMAVERAL</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L83" t="n">
+        <v>20000000</v>
       </c>
       <c r="M83" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>PARALIZADA POR EL CLIMA</t>
-        </is>
-      </c>
-      <c r="O83" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -8135,13 +6712,6 @@
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
-      <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -8195,28 +6765,18 @@
           <t>CALLE DUARTE</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L84" t="n">
+        <v>20000000</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O84" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -8226,13 +6786,6 @@
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -8286,28 +6839,18 @@
           <t>LA PRESA, LOS QUEMADOS, PEDREGAL Y FULA</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L85" t="n">
+        <v>50000000</v>
       </c>
       <c r="M85" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>0. CUBICACION PAGADA. ESPERANDO EQUILIBRIO ECONOMICO PARA REINICIAR</t>
-        </is>
-      </c>
-      <c r="O85" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
@@ -8317,13 +6860,6 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -8377,28 +6913,18 @@
           <t>EL MACO, FALDA DEL CERRO, BARRIO PARAÍSO FUNDACIÓN PERAVIA, LAS FLORES Y BARRIO WASHINGTON</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L86" t="n">
+        <v>50000000</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>DEFINICION POR PARTE DE DIRECCION TECNICA/JURIDICA MOPC. CONTRATO NO CERTIFICADO. ERROR EN PRESUPUESTO OFERTA.NO POSEE AVANCE INICIAL.</t>
-        </is>
-      </c>
-      <c r="O86" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -8408,13 +6934,6 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8468,28 +6987,18 @@
           <t>PAN DE ABAJO, PAN DE ARRIBA, EL TORTO Y PUEBLO NUEVO</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L87" t="n">
+        <v>20000000</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>NO POSEE AVANCE</t>
-        </is>
-      </c>
-      <c r="O87" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -8499,13 +7008,6 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
-      <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -8559,28 +7061,18 @@
           <t>GUAZUMAL, CORBANO SUR Y TIERRA PRIETA</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L88" t="n">
+        <v>50000000</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>NO POSEE AVANCE</t>
-        </is>
-      </c>
-      <c r="O88" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0</v>
-      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -8590,13 +7082,6 @@
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -8650,28 +7135,18 @@
           <t>LOS HINCHA</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L89" t="n">
+        <v>20000000</v>
       </c>
       <c r="M89" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>REACTIVACION DE OBRA. CUBICACION PAGADA 14/06/24</t>
-        </is>
-      </c>
-      <c r="O89" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -8681,13 +7156,6 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
-      <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="inlineStr"/>
-      <c r="AG89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8741,28 +7209,18 @@
           <t>GUALETE PARTE 2</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L90" t="n">
+        <v>20000000</v>
       </c>
       <c r="M90" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">07.11.23 - RECIBIO EL PAGO DE LA CUBICACION,  SE ENCUENTRA TRABAJANDO EN LOS ITEM DE SANTIAGO </t>
-        </is>
-      </c>
-      <c r="O90" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
@@ -8772,13 +7230,6 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8832,28 +7283,18 @@
           <t>LA ALTAGRACIA (EL COCOTE), EL PARAÍSO Y LOS TAVAREZ, MOTOCROSS, LAS MERCEDES Y VILLA VERDE</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L91" t="n">
+        <v>50000000</v>
       </c>
       <c r="M91" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA. CONTRATISTA AGOTO EL PAGO DE LA PRIMERA CUBICACION. SE ESTA A LA ESPERA DEL EQUILIBRIO ECONOMICO PARA ENTREGAR LA 2DA CUBICACION.</t>
-        </is>
-      </c>
-      <c r="O91" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -8863,13 +7304,6 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8923,28 +7357,18 @@
           <t>LOS ALTOS DE LA HERRADURA</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L92" t="n">
+        <v>20000000</v>
       </c>
       <c r="M92" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA. CONTRATISTA AGOTO EL PAGO DE LA PRIMERA CUBICACION. SE ESTA A LA ESPERA DEL EQUILIBRIO ECONOMICO PARA ENTREGAR LA 2DA CUBICACION.</t>
-        </is>
-      </c>
-      <c r="O92" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
@@ -8954,13 +7378,6 @@
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="inlineStr"/>
-      <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr"/>
-      <c r="AF92" t="inlineStr"/>
-      <c r="AG92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -9014,28 +7431,18 @@
           <t>VILLA HORTENCIA Y PALERMO</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L93" t="n">
+        <v>20000000</v>
       </c>
       <c r="M93" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>REACTIVADA POR TRAMITE DE CUBICACION. EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION no. 2</t>
-        </is>
-      </c>
-      <c r="O93" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
@@ -9045,13 +7452,6 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
-      <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr"/>
-      <c r="AF93" t="inlineStr"/>
-      <c r="AG93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -9105,28 +7505,18 @@
           <t>SERRALLÉS, LOS ARROYOS, PERSON</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L94" t="n">
+        <v>20000000</v>
       </c>
       <c r="M94" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O94" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
@@ -9136,13 +7526,6 @@
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
-      <c r="AC94" t="inlineStr"/>
-      <c r="AD94" t="inlineStr"/>
-      <c r="AE94" t="inlineStr"/>
-      <c r="AF94" t="inlineStr"/>
-      <c r="AG94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -9196,28 +7579,18 @@
           <t xml:space="preserve"> LOS ALMENDRO, ALTOS DE PIEDRA, SECTOR HERMANAS MIRABAL Y URBANIZACIÓN BUENO</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L95" t="n">
+        <v>50000000</v>
       </c>
       <c r="M95" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>0. CUBICACION PAGADA</t>
-        </is>
-      </c>
-      <c r="O95" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
@@ -9227,13 +7600,6 @@
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -9287,28 +7653,18 @@
           <t>GUAYMATE, LOS COCOS, LOS BARRETOS</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L96" t="n">
+        <v>50000000</v>
       </c>
       <c r="M96" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O96" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
@@ -9318,13 +7674,6 @@
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
-      <c r="AC96" t="inlineStr"/>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr"/>
-      <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -9378,28 +7727,18 @@
           <t xml:space="preserve">VILLA REAL </t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L97" t="n">
+        <v>20000000</v>
       </c>
       <c r="M97" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O97" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -9409,13 +7748,6 @@
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -9469,28 +7801,18 @@
           <t xml:space="preserve">VILLA PRINCESA DE SAN CARLOS Y VILLA SAN CARLOS </t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L98" t="n">
+        <v>50000000</v>
       </c>
       <c r="M98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O98" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -9500,13 +7822,6 @@
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
-      <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -9560,28 +7875,18 @@
           <t>EL PICAPIEDRA</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ CUBICACIÓN</t>
-        </is>
+      <c r="L99" t="n">
+        <v>50000000</v>
       </c>
       <c r="M99" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>EN PROCESO DE VALIDACION DE VOLUMETRIA PARA CUBICACION</t>
-        </is>
-      </c>
-      <c r="O99" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -9591,13 +7896,6 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -9651,28 +7949,18 @@
           <t>CACIQUE</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L100" t="n">
+        <v>20000000</v>
       </c>
       <c r="M100" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REACTIVACION DE OBRA </t>
-        </is>
-      </c>
-      <c r="O100" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
@@ -9682,13 +7970,6 @@
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -9742,28 +8023,18 @@
           <t>BARRIO KEKI</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>DETENIDO - AGOTÓ AVANCE</t>
-        </is>
+      <c r="L101" t="n">
+        <v>20000000</v>
       </c>
       <c r="M101" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>A LA ESPERA DE PAGO DE CUBICACION</t>
-        </is>
-      </c>
-      <c r="O101" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -9773,13 +8044,6 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
-      <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -9833,44 +8097,45 @@
           <t>CIUDAD SATELITE  Y URB. EDUARDO BRITO I</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L102" t="n">
+        <v>20000000</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>COORDINANDO TRABAJOS DE EJECUCION</t>
-        </is>
-      </c>
-      <c r="O102" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
       <c r="Q102" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="R102" t="n">
+        <v>101</v>
+      </c>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Te</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Activa</t>
+        </is>
+      </c>
+      <c r="W102" t="n">
+        <v>12</v>
+      </c>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
-      <c r="AF102" t="inlineStr"/>
-      <c r="AG102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -9924,28 +8189,18 @@
           <t>GUANÁBANO, HATO VIEJO</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L103" t="n">
+        <v>50000000</v>
       </c>
       <c r="M103" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>TIENEN DINERO Y SE HAN PARADO SIN RAZON ALGUNA. SE LE HA NOTIFICADO EN VARIAS OCACIONES.</t>
-        </is>
-      </c>
-      <c r="O103" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
@@ -9955,13 +8210,6 @@
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
-      <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
-      <c r="AF103" t="inlineStr"/>
-      <c r="AG103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -10015,28 +8263,18 @@
           <t>CIUDAD DE DIOS, LOS MAGUITOS, LOS SAMANES Y LOS GUANDULES</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L104" t="n">
+        <v>50000000</v>
       </c>
       <c r="M104" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA POR CULPA DEL CONTRATISTA, A PESAR DE RECIBIR EL PAGO DE LA CUBICACION #1 HACE MAS DE DOS MESES NO HA REINICIADO EL PROYECTOR</t>
-        </is>
-      </c>
-      <c r="O104" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -10046,13 +8284,6 @@
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
-      <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr"/>
-      <c r="AF104" t="inlineStr"/>
-      <c r="AG104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -10106,28 +8337,18 @@
           <t>LOS PÉREZ Y CRUZ GORDA</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>DETENIDO</t>
-        </is>
+      <c r="L105" t="n">
+        <v>20000000</v>
       </c>
       <c r="M105" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>OBRA DETENIDA POR CULPA DEL CONTRATISTA, A PESAR DE RECIBIR EL PAGO DE LA CUBICACION #1 HACE MAS DE DOS MESES NO HA REINICIADO EL PROYECTOR</t>
-        </is>
-      </c>
-      <c r="O105" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P105" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
@@ -10137,13 +8358,6 @@
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
-      <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -10197,62 +8411,45 @@
           <t>BLAQUIZALES ,  LA RAQUETA Y ARCO-MEJORAMIENTO SOCIAL</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L106" t="n">
+        <v>50000000</v>
       </c>
       <c r="M106" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>A LA ESPERA DE PAGO DE CUBICACION no. 2</t>
-        </is>
-      </c>
-      <c r="O106" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="P106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
       <c r="Q106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R106" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="R106" t="n">
+        <v>105</v>
+      </c>
       <c r="S106" t="inlineStr"/>
-      <c r="T106" t="n">
-        <v>11</v>
-      </c>
-      <c r="U106" t="n">
-        <v>105</v>
-      </c>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr">
+      <c r="T106" t="inlineStr">
         <is>
           <t>2024-06-01</t>
         </is>
       </c>
-      <c r="X106" t="inlineStr">
+      <c r="U106" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>TERMINADO</t>
+        </is>
+      </c>
+      <c r="W106" t="n">
+        <v>10</v>
+      </c>
+      <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>TERMINADO</t>
-        </is>
-      </c>
-      <c r="AD106" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE106" t="inlineStr"/>
-      <c r="AF106" t="inlineStr"/>
-      <c r="AG106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -10306,28 +8503,18 @@
           <t xml:space="preserve">FUNDACION Y EL PEÑON </t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L107" t="n">
+        <v>20000000</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O107" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0</v>
-      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
@@ -10337,13 +8524,6 @@
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
-      <c r="AF107" t="inlineStr"/>
-      <c r="AG107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -10397,28 +8577,18 @@
           <t>JAQUIMEYES</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NO INICIADO </t>
-        </is>
+      <c r="L108" t="n">
+        <v>20000000</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>NO SE HA INICIADO TALLER EN ESTE ITEM</t>
-        </is>
-      </c>
-      <c r="O108" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0</v>
-      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
@@ -10428,13 +8598,6 @@
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
-      <c r="AB108" t="inlineStr"/>
-      <c r="AC108" t="inlineStr"/>
-      <c r="AD108" t="inlineStr"/>
-      <c r="AE108" t="inlineStr"/>
-      <c r="AF108" t="inlineStr"/>
-      <c r="AG108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -10488,28 +8651,18 @@
           <t>ARRIBA, EL LLANO, NY CHIQUITO, LA PAÑUELA, LAS SALINAS</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>EN EJECUCIÓN</t>
-        </is>
+      <c r="L109" t="n">
+        <v>20000000</v>
       </c>
       <c r="M109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>A LA ESPERA DE PAGO DE CUBICACION no. 2</t>
-        </is>
-      </c>
-      <c r="O109" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P109" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
@@ -10519,13 +8672,6 @@
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
-      <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr"/>
-      <c r="AF109" t="inlineStr"/>
-      <c r="AG109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
